--- a/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Caradrap_MS3.xlsx
+++ b/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Caradrap_MS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaWorkspace\Praktika\PSIT2\documents\00_Sitzungen\Milestone_3\Zeitaufwanderfassung\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C73B3514-0652-4549-9CB4-B02B630E8E41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A801527B-B7D0-436C-98AE-A7D579ED97AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9050" xr2:uid="{41C5A5EF-7409-4D51-A49E-327120042783}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>DATUM</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Meilenstein 3</t>
+  </si>
+  <si>
+    <t>6 Stunden</t>
   </si>
 </sst>
 </file>
@@ -351,52 +354,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,7 +719,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,152 +761,152 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="20">
         <v>43194</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16">
+      <c r="A8" s="12">
         <v>43196</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>43198</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>43199</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>43201</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>43202</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>43206</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16">
+      <c r="A15" s="12">
         <v>43209</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="24">
+      <c r="A16" s="16">
         <v>43211</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -933,7 +936,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9"/>
     </row>
